--- a/data/trans_camb/P29A_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P29A_R-Edad-trans_camb.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-27,13; -8,17</t>
+          <t>-26,97; -7,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-36,46; -15,37</t>
+          <t>-37,09; -15,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-28,2; -13,34</t>
+          <t>-27,46; -13,71</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-27,86; -8,35</t>
+          <t>-27,95; -7,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-37,61; -16,06</t>
+          <t>-38,72; -16,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-28,88; -13,89</t>
+          <t>-28,42; -14,33</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-20,77; -8,9</t>
+          <t>-20,69; -8,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-46,76; -25,64</t>
+          <t>-47,93; -25,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-30,13; -17,63</t>
+          <t>-31,14; -18,11</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-21,42; -9,23</t>
+          <t>-21,16; -8,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-47,42; -26,07</t>
+          <t>-48,52; -26,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-30,93; -18,19</t>
+          <t>-31,67; -18,56</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-21,61; -13,37</t>
+          <t>-22,25; -13,28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-34,63; -22,84</t>
+          <t>-34,41; -22,96</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-25,45; -18,38</t>
+          <t>-25,67; -18,61</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-21,73; -13,5</t>
+          <t>-22,43; -13,38</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-35,23; -23,7</t>
+          <t>-35,28; -23,84</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-25,8; -18,78</t>
+          <t>-26,08; -18,96</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-43,89; -11,98</t>
+          <t>-50,07; -11,91</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-31,59; -21,69</t>
+          <t>-32,26; -21,89</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-40,3; -17,79</t>
+          <t>-41,81; -17,91</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-44,01; -12,05</t>
+          <t>-50,35; -12,01</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-32,58; -22,88</t>
+          <t>-32,97; -22,97</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-41,08; -18,14</t>
+          <t>-42,47; -18,28</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-22,48; -14,49</t>
+          <t>-22,72; -14,18</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-32,63; -21,96</t>
+          <t>-32,68; -21,86</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-25,01; -18,57</t>
+          <t>-25,21; -18,57</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-22,59; -14,63</t>
+          <t>-22,8; -14,27</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-33,24; -22,63</t>
+          <t>-33,18; -22,69</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-25,23; -18,82</t>
+          <t>-25,36; -18,88</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-16,51; -9,85</t>
+          <t>-16,63; -10,01</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-32,9; -2,96</t>
+          <t>-33,11; -2,33</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-20,03; -7,97</t>
+          <t>-20,3; -7,69</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-16,67; -10,0</t>
+          <t>-16,6; -10,06</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-33,52; -3,15</t>
+          <t>-33,66; -2,39</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-20,24; -8,18</t>
+          <t>-20,53; -7,87</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-25,03; -14,27</t>
+          <t>-26,13; -14,25</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-29,98; -19,02</t>
+          <t>-30,26; -19,29</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-25,13; -18,57</t>
+          <t>-25,69; -18,67</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,17 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-25,34; -14,47</t>
+          <t>-26,35; -14,42</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-30,85; -19,7</t>
+          <t>-31,03; -19,87</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-25,56; -18,97</t>
+          <t>-26,06; -19,01</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P29A_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P29A_R-Edad-trans_camb.xlsx
@@ -522,17 +522,17 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2023/2015</t>
+          <t>2023/2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2023/2015</t>
+          <t>2023/2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2023/2015</t>
+          <t>2023/2016</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-26,97; -7,29</t>
+          <t>-27,48; -7,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-37,09; -15,19</t>
+          <t>-36,59; -15,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-27,46; -13,71</t>
+          <t>-28,23; -13,78</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-27,95; -7,61</t>
+          <t>-28,11; -7,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-38,72; -16,02</t>
+          <t>-38,1; -16,03</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-28,42; -14,33</t>
+          <t>-29,04; -14,47</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-20,69; -8,45</t>
+          <t>-21,04; -8,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-47,93; -25,86</t>
+          <t>-47,16; -26,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-31,14; -18,11</t>
+          <t>-30,72; -18,21</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-21,16; -8,73</t>
+          <t>-21,52; -9,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-48,52; -26,22</t>
+          <t>-48,1; -26,56</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-31,67; -18,56</t>
+          <t>-31,47; -18,59</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-22,25; -13,28</t>
+          <t>-22,34; -13,32</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-34,41; -22,96</t>
+          <t>-34,39; -22,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-25,67; -18,61</t>
+          <t>-25,87; -18,67</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-22,43; -13,38</t>
+          <t>-22,42; -13,46</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-35,28; -23,84</t>
+          <t>-35,28; -23,77</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-26,08; -18,96</t>
+          <t>-26,16; -19,0</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-50,07; -11,91</t>
+          <t>-49,96; -11,92</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-32,26; -21,89</t>
+          <t>-32,07; -21,74</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-41,81; -17,91</t>
+          <t>-41,72; -18,09</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-50,35; -12,01</t>
+          <t>-50,21; -11,95</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-32,97; -22,97</t>
+          <t>-33,01; -23,01</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-42,47; -18,28</t>
+          <t>-42,42; -18,44</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-22,72; -14,18</t>
+          <t>-22,57; -14,18</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-32,68; -21,86</t>
+          <t>-32,95; -22,2</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-25,21; -18,57</t>
+          <t>-25,17; -18,59</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-22,8; -14,27</t>
+          <t>-22,72; -14,26</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-33,18; -22,69</t>
+          <t>-33,34; -23,02</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-25,36; -18,88</t>
+          <t>-25,34; -18,71</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-16,63; -10,01</t>
+          <t>-16,32; -9,62</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-33,11; -2,33</t>
+          <t>-33,03; -3,26</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-20,3; -7,69</t>
+          <t>-20,2; -7,83</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-16,6; -10,06</t>
+          <t>-16,34; -9,78</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-33,66; -2,39</t>
+          <t>-33,78; -3,42</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-20,53; -7,87</t>
+          <t>-20,39; -7,95</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-26,13; -14,25</t>
+          <t>-25,82; -14,16</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-30,26; -19,29</t>
+          <t>-30,29; -19,36</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-25,69; -18,67</t>
+          <t>-25,36; -18,51</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,17 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-26,35; -14,42</t>
+          <t>-26,17; -14,37</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-31,03; -19,87</t>
+          <t>-31,06; -19,88</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-26,06; -19,01</t>
+          <t>-25,87; -18,89</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P29A_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P29A_R-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-27,48; -7,41</t>
+          <t>-27,13; -8,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-36,59; -15,22</t>
+          <t>-36,46; -15,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-28,23; -13,78</t>
+          <t>-28,2; -13,34</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-28,11; -7,71</t>
+          <t>-27,86; -8,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-38,1; -16,03</t>
+          <t>-37,61; -16,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-29,04; -14,47</t>
+          <t>-28,88; -13,89</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-21,04; -8,77</t>
+          <t>-20,77; -8,9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-47,16; -26,06</t>
+          <t>-46,76; -25,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-30,72; -18,21</t>
+          <t>-30,13; -17,63</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-21,52; -9,03</t>
+          <t>-21,42; -9,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-48,1; -26,56</t>
+          <t>-47,42; -26,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-31,47; -18,59</t>
+          <t>-30,93; -18,19</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-22,34; -13,32</t>
+          <t>-21,61; -13,37</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-34,39; -22,88</t>
+          <t>-34,63; -22,84</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-25,87; -18,67</t>
+          <t>-25,45; -18,38</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-22,42; -13,46</t>
+          <t>-21,73; -13,5</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-35,28; -23,77</t>
+          <t>-35,23; -23,7</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-26,16; -19,0</t>
+          <t>-25,8; -18,78</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-49,96; -11,92</t>
+          <t>-43,89; -11,98</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-32,07; -21,74</t>
+          <t>-31,59; -21,69</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-41,72; -18,09</t>
+          <t>-40,3; -17,79</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-50,21; -11,95</t>
+          <t>-44,01; -12,05</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-33,01; -23,01</t>
+          <t>-32,58; -22,88</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-42,42; -18,44</t>
+          <t>-41,08; -18,14</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-22,57; -14,18</t>
+          <t>-22,48; -14,49</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-32,95; -22,2</t>
+          <t>-32,63; -21,96</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-25,17; -18,59</t>
+          <t>-25,01; -18,57</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-22,72; -14,26</t>
+          <t>-22,59; -14,63</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-33,34; -23,02</t>
+          <t>-33,24; -22,63</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-25,34; -18,71</t>
+          <t>-25,23; -18,82</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-16,32; -9,62</t>
+          <t>-16,51; -9,85</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-33,03; -3,26</t>
+          <t>-32,9; -2,96</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-20,2; -7,83</t>
+          <t>-20,03; -7,97</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-16,34; -9,78</t>
+          <t>-16,67; -10,0</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-33,78; -3,42</t>
+          <t>-33,52; -3,15</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-20,39; -7,95</t>
+          <t>-20,24; -8,18</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-25,82; -14,16</t>
+          <t>-25,03; -14,27</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-30,29; -19,36</t>
+          <t>-29,98; -19,02</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-25,36; -18,51</t>
+          <t>-25,13; -18,57</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,17 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-26,17; -14,37</t>
+          <t>-25,34; -14,47</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-31,06; -19,88</t>
+          <t>-30,85; -19,7</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-25,87; -18,89</t>
+          <t>-25,56; -18,97</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P29A_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P29A_R-Edad-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-15,62</t>
+          <t>-15,93</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-25,74</t>
+          <t>-27,19</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-20,21</t>
+          <t>-20,58</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-27,13; -8,17</t>
+          <t>-27,87; -8,2</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-36,46; -15,37</t>
+          <t>-38,31; -16,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-28,2; -13,34</t>
+          <t>-29,19; -13,59</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-16,04%</t>
+          <t>-16,36%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-26,79%</t>
+          <t>-28,31%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-20,87%</t>
+          <t>-21,25%</t>
         </is>
       </c>
     </row>
@@ -625,24 +625,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-27,86; -8,35</t>
+          <t>-28,45; -8,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-37,61; -16,06</t>
+          <t>-39,82; -17,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-28,88; -13,89</t>
+          <t>-30,26; -14,11</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-13,99</t>
+          <t>-13,06</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-33,97</t>
+          <t>-46,51</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-23,12</t>
+          <t>-29,61</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-20,77; -8,9</t>
+          <t>-19,93; -8,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-46,76; -25,64</t>
+          <t>-76,76; -26,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-30,13; -17,63</t>
+          <t>-56,08; -18,12</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-14,37%</t>
+          <t>-13,42%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-34,41%</t>
+          <t>-47,11%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-23,62%</t>
+          <t>-30,25%</t>
         </is>
       </c>
     </row>
@@ -721,24 +721,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-21,42; -9,23</t>
+          <t>-20,33; -8,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-47,42; -26,07</t>
+          <t>-77,95; -26,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-30,93; -18,19</t>
+          <t>-57,49; -18,66</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-17,24</t>
+          <t>-16,55</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-28,84</t>
+          <t>-28,53</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-21,97</t>
+          <t>-21,32</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-21,61; -13,37</t>
+          <t>-20,89; -12,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-34,63; -22,84</t>
+          <t>-34,42; -22,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-25,45; -18,38</t>
+          <t>-24,69; -17,77</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-17,36%</t>
+          <t>-16,67%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-29,79%</t>
+          <t>-29,47%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-22,34%</t>
+          <t>-21,67%</t>
         </is>
       </c>
     </row>
@@ -817,24 +817,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-21,73; -13,5</t>
+          <t>-20,95; -12,88</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-35,23; -23,7</t>
+          <t>-34,94; -23,58</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-25,8; -18,78</t>
+          <t>-25,0; -18,13</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-22,66</t>
+          <t>-45,81</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-26,73</t>
+          <t>-26,22</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-24,2</t>
+          <t>-39,61</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-43,89; -11,98</t>
+          <t>-75,77; -11,76</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-31,59; -21,69</t>
+          <t>-31,05; -21,23</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-40,3; -17,79</t>
+          <t>-70,04; -17,36</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-22,78%</t>
+          <t>-46,06%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-27,78%</t>
+          <t>-27,25%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-24,66%</t>
+          <t>-40,35%</t>
         </is>
       </c>
     </row>
@@ -913,24 +913,24 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-44,01; -12,05</t>
+          <t>-75,97; -11,82</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-32,58; -22,88</t>
+          <t>-31,99; -22,38</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-41,08; -18,14</t>
+          <t>-71,67; -17,69</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -940,17 +940,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-18,21</t>
+          <t>-17,78</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-27,59</t>
+          <t>-27,03</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-21,78</t>
+          <t>-21,27</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-22,48; -14,49</t>
+          <t>-21,94; -14,18</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-32,63; -21,96</t>
+          <t>-32,05; -21,56</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-25,01; -18,57</t>
+          <t>-24,42; -17,97</t>
         </is>
       </c>
     </row>
@@ -986,17 +986,17 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-18,28%</t>
+          <t>-17,85%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-28,09%</t>
+          <t>-27,52%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-21,97%</t>
+          <t>-21,44%</t>
         </is>
       </c>
     </row>
@@ -1009,24 +1009,24 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-22,59; -14,63</t>
+          <t>-22,0; -14,23</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-33,24; -22,63</t>
+          <t>-32,6; -22,2</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-25,23; -18,82</t>
+          <t>-24,63; -18,29</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1036,17 +1036,17 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-13,18</t>
+          <t>-10,11</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-17,8</t>
+          <t>-8,09</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-15,42</t>
+          <t>-9,07</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-16,51; -9,85</t>
+          <t>-14,23; -6,71</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-32,9; -2,96</t>
+          <t>-28,93; 1,46</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-20,03; -7,97</t>
+          <t>-16,58; -2,16</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1082,17 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-13,32%</t>
+          <t>-10,22%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-18,23%</t>
+          <t>-8,22%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-15,64%</t>
+          <t>-9,19%</t>
         </is>
       </c>
     </row>
@@ -1105,24 +1105,24 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-16,67; -10,0</t>
+          <t>-14,41; -6,92</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-33,52; -3,15</t>
+          <t>-29,29; 1,54</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-20,24; -8,18</t>
+          <t>-16,77; -2,18</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1132,17 +1132,17 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-17,17</t>
+          <t>-17,31</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-26,41</t>
+          <t>-37,58</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-21,08</t>
+          <t>-23,0</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-25,03; -14,27</t>
+          <t>-23,44; -11,57</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-29,98; -19,02</t>
+          <t>-47,8; -23,08</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-25,13; -18,57</t>
+          <t>-28,32; -17,05</t>
         </is>
       </c>
     </row>
@@ -1178,17 +1178,17 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-17,39%</t>
+          <t>-17,46%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-27,18%</t>
+          <t>-39,13%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-21,48%</t>
+          <t>-23,39%</t>
         </is>
       </c>
     </row>
@@ -1201,29 +1201,126 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-25,34; -14,47</t>
+          <t>-23,56; -11,83</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-30,85; -19,7</t>
+          <t>-49,81; -26,82</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-25,56; -18,97</t>
+          <t>-28,65; -17,62</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>-24,28</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>-26,77</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>-25,36</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-48,16; -14,06</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-35,63; -16,1</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-41,27; -18,61</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>-24,6%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>-27,55%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>-25,84%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>-48,86; -14,24</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>-36,53; -16,28</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>-42,03; -18,95</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>

--- a/data/trans_camb/P29A_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P29A_R-Edad-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -50,6 +50,34 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -476,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -492,6 +520,12 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -506,33 +540,69 @@
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2023/2016</t>
+          <t>2012/2007</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2023/2016</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2023/2016</t>
+          <t>2023/2007</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012/2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016/2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023/2007</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012/2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016/2007</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023/2007</t>
         </is>
       </c>
     </row>
@@ -542,6 +612,12 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -556,17 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-15,93</t>
+          <t>4,36</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-27,19</t>
+          <t>4,67</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-20,58</t>
+          <t>-11,54</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2,64</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>4,94</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>-4,2</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>3,43</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>4,73</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-7,48</t>
         </is>
       </c>
     </row>
@@ -579,17 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-27,87; -8,2</t>
+          <t>-1,83; 11,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-38,31; -16,32</t>
+          <t>-2,94; 11,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-29,19; -13,59</t>
+          <t>-21,3; -1,92</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-4,05; 9,59</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-1,29; 12,02</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-13,14; 3,66</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-1,17; 7,8</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>0,19; 9,57</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-13,98; -1,02</t>
         </is>
       </c>
     </row>
@@ -602,17 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-16,36%</t>
+          <t>8,08%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-28,31%</t>
+          <t>8,64%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-21,25%</t>
+          <t>-21,37%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>7,26%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>13,57%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>-11,55%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>7,56%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>10,4%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-16,45%</t>
         </is>
       </c>
     </row>
@@ -625,17 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-28,45; -8,39</t>
+          <t>-3,17; 22,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-39,82; -17,18</t>
+          <t>-5,28; 22,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-30,26; -14,11</t>
+          <t>-38,38; -3,86</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>-10,12; 29,67</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-3,45; 36,13</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-34,14; 10,23</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-2,46; 18,04</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>0,6; 22,04</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-29,59; -1,54</t>
         </is>
       </c>
     </row>
@@ -652,17 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-13,06</t>
+          <t>-2,06</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-46,51</t>
+          <t>-5,9</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-29,61</t>
+          <t>-11,17</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>-2,31</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>6,17</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>-5,13</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-2,63</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-0,85</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-10,57</t>
         </is>
       </c>
     </row>
@@ -675,17 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-19,93; -8,23</t>
+          <t>-7,13; 3,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-76,76; -26,67</t>
+          <t>-11,25; -0,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-56,08; -18,12</t>
+          <t>-18,42; -4,74</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>-7,65; 3,55</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1,36; 12,0</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>-16,91; 1,75</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-6,56; 1,34</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-4,77; 2,87</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-19,74; -5,15</t>
         </is>
       </c>
     </row>
@@ -698,17 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-13,42%</t>
+          <t>-3,14%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-47,11%</t>
+          <t>-9,01%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-30,25%</t>
+          <t>-17,05%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>-7,0%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>18,72%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>-15,56%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-5,21%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-1,68%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-20,95%</t>
         </is>
       </c>
     </row>
@@ -721,17 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-20,33; -8,44</t>
+          <t>-10,46; 4,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-77,95; -26,98</t>
+          <t>-16,46; -0,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-57,49; -18,66</t>
+          <t>-27,78; -7,4</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>-21,39; 12,08</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>3,7; 39,45</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>-48,72; 5,04</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-12,67; 2,52</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-9,11; 5,85</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-39,29; -10,38</t>
         </is>
       </c>
     </row>
@@ -748,17 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-16,55</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-28,53</t>
+          <t>3,12</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-21,32</t>
+          <t>-7,29</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-1,18</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>5,63</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-2,38</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-0,56</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>4,93</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-4,32</t>
         </is>
       </c>
     </row>
@@ -771,17 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-20,89; -12,79</t>
+          <t>-6,29; 5,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-34,42; -22,63</t>
+          <t>-2,79; 8,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-24,69; -17,77</t>
+          <t>-13,37; -1,31</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-6,24; 3,97</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0,18; 11,07</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-7,4; 2,59</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-4,41; 3,78</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1,17; 9,11</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-8,15; -0,07</t>
         </is>
       </c>
     </row>
@@ -794,17 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-16,67%</t>
+          <t>-0,4%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-29,47%</t>
+          <t>5,21%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-21,67%</t>
+          <t>-12,17%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>-3,9%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>18,62%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>-7,85%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-1,25%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>11,08%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-9,7%</t>
         </is>
       </c>
     </row>
@@ -817,17 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-20,95; -12,88</t>
+          <t>-10,0; 8,82</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-34,94; -23,58</t>
+          <t>-4,61; 15,33</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-25,0; -18,13</t>
+          <t>-21,2; -2,08</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>-19,51; 14,68</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0,25; 40,33</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>-22,41; 9,13</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-9,47; 9,1</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>2,71; 21,57</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-17,53; -0,29</t>
         </is>
       </c>
     </row>
@@ -844,17 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-45,81</t>
+          <t>2,4</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-26,22</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-39,61</t>
+          <t>-19,41</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>5,52</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>12,77</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>1,49</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>3,68</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>6,62</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-8,35</t>
         </is>
       </c>
     </row>
@@ -867,17 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-75,77; -11,76</t>
+          <t>-4,59; 8,1</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-31,05; -21,23</t>
+          <t>-5,06; 6,87</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-70,04; -17,36</t>
+          <t>-41,44; -2,29</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>-0,17; 11,16</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>7,05; 18,66</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-4,03; 6,75</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-0,59; 8,17</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>2,31; 11,03</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-23,13; -0,95</t>
         </is>
       </c>
     </row>
@@ -890,17 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-46,06%</t>
+          <t>4,12%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-27,25%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-40,35%</t>
+          <t>-33,25%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>21,64%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>50,03%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>5,84%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>8,77%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>15,77%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>-19,89%</t>
         </is>
       </c>
     </row>
@@ -913,17 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-75,97; -11,82</t>
+          <t>-7,41; 14,65</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-31,99; -22,38</t>
+          <t>-8,44; 12,41</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-71,67; -17,69</t>
+          <t>-69,02; -4,0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>-0,7; 48,79</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>24,99; 83,2</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>-14,16; 28,58</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-1,29; 20,72</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>5,13; 27,56</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-54,37; -2,26</t>
         </is>
       </c>
     </row>
@@ -940,17 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-17,78</t>
+          <t>6,05</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-27,03</t>
+          <t>13,71</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-21,27</t>
+          <t>2,86</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>4,38</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>7,7</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>7,45</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>5,11</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>10,55</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>5,7</t>
         </is>
       </c>
     </row>
@@ -963,17 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-21,94; -14,18</t>
+          <t>-0,88; 13,26</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-32,05; -21,56</t>
+          <t>6,71; 20,48</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-24,42; -17,97</t>
+          <t>-4,36; 8,93</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-1,33; 10,06</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>1,59; 12,99</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>2,71; 12,06</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0,39; 9,67</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>6,37; 15,54</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>1,57; 9,9</t>
         </is>
       </c>
     </row>
@@ -986,17 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-17,85%</t>
+          <t>13,66%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-27,52%</t>
+          <t>30,95%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-21,44%</t>
+          <t>6,45%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>25,38%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>44,67%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>43,2%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>16,81%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>34,73%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>18,77%</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-22,0; -14,23</t>
+          <t>-1,85; 32,58</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-32,6; -22,2</t>
+          <t>14,48; 50,89</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-24,63; -18,29</t>
+          <t>-9,17; 22,5</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-6,79; 68,87</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>7,81; 89,92</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>13,13; 84,66</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>1,39; 34,54</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>19,36; 56,54</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>4,71; 34,95</t>
         </is>
       </c>
     </row>
@@ -1036,17 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-10,11</t>
+          <t>4,32</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-8,09</t>
+          <t>8,15</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-9,07</t>
+          <t>9,09</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>4,69</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>9,31</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>38,17</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>4,6</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>8,95</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>24,44</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-14,23; -6,71</t>
+          <t>-4,16; 12,52</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-28,93; 1,46</t>
+          <t>-0,18; 16,39</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-16,58; -2,16</t>
+          <t>1,81; 15,77</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>-0,32; 9,29</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>4,69; 14,49</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>9,49; 70,11</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-0,5; 9,3</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>3,9; 13,67</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>9,45; 53,48</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-10,22%</t>
+          <t>10,14%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-8,22%</t>
+          <t>19,12%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-9,19%</t>
+          <t>21,31%</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>59,25%</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>117,58%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>482,0%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>19,36%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>37,65%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>102,78%</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-14,41; -6,92</t>
+          <t>-9,04; 31,83</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-29,29; 1,54</t>
+          <t>-0,59; 41,77</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-16,77; -2,18</t>
+          <t>4,48; 42,12</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>-4,61; 144,09</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>45,72; 247,26</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>108,45; 1258,79</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>-1,97; 42,58</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>15,08; 65,23</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>37,45; 245,09</t>
         </is>
       </c>
     </row>
@@ -1132,17 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-17,31</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-37,58</t>
+          <t>1,95</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-23,0</t>
+          <t>1,87</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>0,5</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>3,11</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>1,84</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>-0,01</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>2,73</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>2,29</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-23,44; -11,57</t>
+          <t>-9,59; 9,11</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-47,8; -23,08</t>
+          <t>-6,68; 10,27</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-28,32; -17,05</t>
+          <t>-6,01; 9,73</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>-2,48; 3,85</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>-0,73; 7,24</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>-1,49; 4,74</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-4,31; 4,48</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-2,22; 6,76</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>-1,78; 6,25</t>
         </is>
       </c>
     </row>
@@ -1178,17 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-17,46%</t>
+          <t>-2,67%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-39,13%</t>
+          <t>5,85%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-23,39%</t>
+          <t>5,6%</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>10,88%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>67,31%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>39,86%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>-0,06%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>17,39%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>14,56%</t>
         </is>
       </c>
     </row>
@@ -1201,17 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-23,56; -11,83</t>
+          <t>-25,61; 32,39</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-49,81; -26,82</t>
+          <t>-17,4; 36,39</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-28,65; -17,62</t>
+          <t>-15,75; 35,34</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>-41,07; 140,04</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-14,12; 238,32</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-23,85; 173,44</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-24,02; 32,52</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-11,17; 49,94</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-9,61; 49,85</t>
         </is>
       </c>
     </row>
@@ -1228,17 +2144,47 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>-24,28</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>-26,77</t>
+          <t>2,18</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>-25,36</t>
+          <t>-9,18</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>1,15</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>6,22</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>3,63</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>0,99</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>4,1</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>-2,72</t>
         </is>
       </c>
     </row>
@@ -1251,17 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-48,16; -14,06</t>
+          <t>-1,35; 3,64</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-35,63; -16,1</t>
+          <t>-0,39; 4,36</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-41,27; -18,61</t>
+          <t>-18,95; -4,75</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-0,97; 3,27</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>4,07; 8,28</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-1,26; 16,42</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-0,66; 2,7</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>2,31; 5,8</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>-6,07; 3,74</t>
         </is>
       </c>
     </row>
@@ -1274,17 +2250,47 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>-24,6%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>-27,55%</t>
+          <t>3,97%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>-25,84%</t>
+          <t>-16,7%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>4,7%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>25,35%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>14,82%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>2,5%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>10,4%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>-6,91%</t>
         </is>
       </c>
     </row>
@@ -1297,17 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-48,86; -14,24</t>
+          <t>-2,45; 6,76</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-36,53; -16,28</t>
+          <t>-0,68; 8,11</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-42,03; -18,95</t>
+          <t>-34,03; -8,72</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>-3,72; 13,86</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>15,98; 35,07</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>-5,01; 67,86</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>-1,67; 6,94</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>5,72; 15,1</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>-15,31; 9,37</t>
         </is>
       </c>
     </row>
@@ -1319,11 +2355,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="12">
     <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
